--- a/biology/Botanique/Conglutine/Conglutine.xlsx
+++ b/biology/Botanique/Conglutine/Conglutine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les conglutines, dont la structure chimique est celle de globulines ou d'albumines, sont les principales protéines de réserve des graines de lupins. Ces protéines ont été classées en quatre familles à la suite de leur séparation par électrophorèse (réalisée en 1975) :  les conglutines -α, -β, -γ et -δ. Les deux premières sont les plus abondantes, tandis que les deux dernières sont présentes en faibles concentrations.
 Les conglutines-α (globuline 11S) sont dégradées de manière protéolytique au cours de la germination, ce qui confirme leur rôle de protéine de stockage de semences classique.
 Les conglutines-β (globuline 7S) sont des protéines germinales abondantes, qui contribuent  par leur métabolisme à la libération de lectines au cours de la germination, tout en ayant une fonction de stockage protéique  dans les graines. Elles sont également des allergènes potentiels.
 Les conglutines-γ  (globuline 7S) peuvent posséder une activité similaire à celle des lectines, sans appartenir à la catégorie des protéines de réserve classique des graines, n'étant pas dégradées comme celles-ci  pendant la germination.
-Les conglutines-δ (albumine 2S), les moins étudiées des conglutines,  sont de petites protéines localisées dans la vacuole et peu digestibles[1],[2].
+Les conglutines-δ (albumine 2S), les moins étudiées des conglutines,  sont de petites protéines localisées dans la vacuole et peu digestibles,.
 </t>
         </is>
       </c>
